--- a/Testdata/Book1.xlsx
+++ b/Testdata/Book1.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{989E4BA0-FFB5-4692-AE81-DCBDD9150962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnavkuma\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EEB5C57-0CB4-46CB-AFA3-872AB675ACEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{FFE15413-3EA1-4317-94CF-498C793BDA72}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{FFE15413-3EA1-4317-94CF-498C793BDA72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -64,6 +68,9 @@
     <t>zip</t>
   </si>
   <si>
+    <t>country</t>
+  </si>
+  <si>
     <t>sainaveen.nmk@gmail.com</t>
   </si>
   <si>
@@ -83,6 +90,9 @@
   </si>
   <si>
     <t>Karnataka</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
   <si>
     <t>Naveen@123</t>
@@ -493,16 +503,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE32E92D-5954-4CC8-A253-53E45C8DFE28}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="21.42578125" style="1"/>
+    <col min="1" max="16384" width="21.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,37 +543,43 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="J2" s="1">
         <v>560066</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
